--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3450512.832339932</v>
+        <v>3559654.085900056</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7811831.240246315</v>
+        <v>7834278.115728338</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>195.8221960158093</v>
+        <v>161.5971167878949</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>12.28773869504417</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>76.97020628751144</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>95.55332328986114</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>190.4710157514067</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>13.98134165803488</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31.02663828601449</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>107.5212269654717</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>295.8856180788258</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>102.1797510414744</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>26.37203567429833</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>161.7443792582275</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>61.6215214068367</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076516</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>126.9420388308267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>48.15331591778379</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206815</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>84.07981473403045</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>10.58364443467423</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>36.21070476472357</v>
+        <v>109.7234882887314</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>121.2558461704864</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>151.8555862333575</v>
       </c>
       <c r="U28" t="n">
-        <v>25.73194049497408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.458642397731778</v>
       </c>
       <c r="U31" t="n">
-        <v>171.4144753991464</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>106.7037805093888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3481,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>186.8063084124843</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>117.4665281367401</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>214.5792208656437</v>
       </c>
     </row>
     <row r="41">
@@ -3791,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3949,19 +3951,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>107.1821924454414</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>116.287325111933</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3983,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4144,10 +4146,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>102.1557845699813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1089.391082610343</v>
+        <v>1340.457591632811</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.391082610343</v>
+        <v>971.4950746923994</v>
       </c>
       <c r="D2" t="n">
-        <v>731.1253840035929</v>
+        <v>613.2293760856489</v>
       </c>
       <c r="E2" t="n">
-        <v>731.1253840035929</v>
+        <v>227.4411234874047</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>64.21171259054111</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>928.7179450719102</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1569.741154691804</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1875.216260927388</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2150.33248024402</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2487.745304821932</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="X2" t="n">
-        <v>1479.530414586155</v>
+        <v>2117.196763672745</v>
       </c>
       <c r="Y2" t="n">
-        <v>1089.391082610343</v>
+        <v>1727.057431696933</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>949.890208309364</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>775.437179028237</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>626.5027693669858</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>467.2653143615303</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>320.7307563884153</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>77.11538214995008</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>198.5384744202281</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>589.3234121784419</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1230.346621798336</v>
       </c>
       <c r="N3" t="n">
-        <v>1861.38035112061</v>
+        <v>1515.680492231667</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2144.409140067087</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.954701028121</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1533.717344299919</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1325.865844094386</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>1726.776407040599</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>1726.776407040599</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>1576.659767628263</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>1576.659767628263</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1498.912084509565</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>1330.590312102689</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1332.824984110053</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1466.334073395855</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1692.706176713999</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1941.772943046538</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2190.352074789138</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2403.938841137293</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2563.178535773336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>2387.520519301288</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>2163.109360076725</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>2163.109360076725</v>
       </c>
       <c r="V4" t="n">
-        <v>1343.298863860761</v>
+        <v>1908.424871870838</v>
       </c>
       <c r="W4" t="n">
-        <v>1053.881693823801</v>
+        <v>1908.424871870838</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.881693823801</v>
+        <v>1908.424871870838</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.0891146802707</v>
+        <v>1908.424871870838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.12525314008</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="C5" t="n">
-        <v>832.1627361996682</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2273.420620155269</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2273.420620155269</v>
       </c>
       <c r="V5" t="n">
-        <v>1961.190851465281</v>
+        <v>1942.357732811699</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.190851465281</v>
+        <v>1942.357732811699</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.725093204202</v>
+        <v>1568.891974550619</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.725093204202</v>
+        <v>1568.891974550619</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.139411173514</v>
+        <v>563.7673318682818</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049855</v>
+        <v>861.0792809845966</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164205</v>
+        <v>1470.397510810264</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.39011576115</v>
+        <v>1860.807072136006</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>475.205037342667</v>
+        <v>329.3433382158496</v>
       </c>
       <c r="C7" t="n">
-        <v>475.205037342667</v>
+        <v>160.4071552879427</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>160.4071552879427</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>160.4071552879427</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1321.927733452886</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V7" t="n">
-        <v>1244.744376093917</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="W7" t="n">
-        <v>955.3272060569564</v>
+        <v>778.1254682573971</v>
       </c>
       <c r="X7" t="n">
-        <v>727.337655158939</v>
+        <v>550.1359173593797</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.5450760154089</v>
+        <v>329.3433382158496</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.273730074952</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="C8" t="n">
-        <v>1433.311213134541</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395678</v>
+        <v>1229.530453193509</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400154</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139074</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="Y8" t="n">
-        <v>2188.873570139074</v>
+        <v>1528.404814889292</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180659</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495376</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508757</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105702</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.57863988474</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2349.761373717037</v>
+        <v>2255.657696694299</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978774</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699705</v>
+        <v>201.9164947351555</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576348</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576348</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1087.617065071647</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="V10" t="n">
-        <v>1087.617065071647</v>
+        <v>836.3602904692523</v>
       </c>
       <c r="W10" t="n">
-        <v>1087.617065071647</v>
+        <v>546.9431204322916</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>383.5649595653952</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281172</v>
+        <v>383.5649595653952</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.4644740681603</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>465.5282911402533</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2317.673418815656</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2098.071953838597</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1808.996727182795</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1554.312238976908</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.895068939947</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1036.90551804193</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>816.1129388984</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5342,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.955258982919</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2148.422832439302</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1859.347605783499</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854706</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X16" t="n">
-        <v>1460.396302956689</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y16" t="n">
-        <v>1239.603723813159</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2223.769289033212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>3110.333886317439</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>2941.397703389532</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>2941.397703389532</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>2646.594662309228</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024108</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>4538.858342859047</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>4319.256877881989</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>4030.181651226187</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>4030.181651226187</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>3740.764481189226</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>3512.774930291208</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>3291.982351147678</v>
       </c>
     </row>
     <row r="20">
@@ -5729,28 +5731,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5762,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M21" t="n">
         <v>1186.520756890282</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.372134388645</v>
+        <v>835.5837926935562</v>
       </c>
       <c r="C22" t="n">
-        <v>2770.435951460738</v>
+        <v>666.6476097656493</v>
       </c>
       <c r="D22" t="n">
-        <v>2733.859482001421</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6065,31 @@
         <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>2453.684166529967</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
         <v>4690.833152398593</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3228.789304425605</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C25" t="n">
-        <v>3059.853121497698</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>2909.736482085363</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1854.980427813048</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1600.295939607161</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1310.8787695702</v>
       </c>
       <c r="X25" t="n">
-        <v>3449.581883569135</v>
+        <v>1082.889218672183</v>
       </c>
       <c r="Y25" t="n">
-        <v>3228.789304425605</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6266,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>2490.32382148308</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>3087.702309109632</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990607</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>849.3843576263199</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C31" t="n">
-        <v>680.448174698413</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D31" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U31" t="n">
-        <v>2023.916610740955</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V31" t="n">
-        <v>1769.232122535068</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W31" t="n">
-        <v>1479.814952498107</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X31" t="n">
-        <v>1251.82540160009</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y31" t="n">
-        <v>1031.03282245656</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E34" t="n">
         <v>464.5051450557705</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1652.717886400351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3044.507496087129</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C37" t="n">
-        <v>2875.571313159222</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159222</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673038</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3743.562681852347</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W37" t="n">
-        <v>3454.145511815386</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X37" t="n">
-        <v>3226.155960917369</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="Y37" t="n">
-        <v>3226.155960917369</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,25 +7183,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="41">
@@ -7400,22 +7402,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7424,19 +7426,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>2257.062161108198</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>806.8386896933887</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2088.797704633586</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1799.722477977784</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1545.037989771897</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1255.620819734936</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>1027.631268836919</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>806.8386896933887</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7645,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7670,25 +7672,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2149.810879820877</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>906.400451171542</v>
       </c>
     </row>
   </sheetData>
@@ -7982,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>407.4751802037413</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>138.493431604859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>26.19461818159803</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>183.0243075811962</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>380.8926041660687</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.454437538930279</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.4670104377189</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039156</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>73.66059580999865</v>
+        <v>191.469478810361</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.4047645948079</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>245.5619442858258</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>40.30478226780116</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.2521344095045</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.94647126761414</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>215.1260109543629</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>112.4047682534888</v>
+        <v>38.89198472948098</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096908</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>164.9286282187578</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="U28" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>213.9468079295565</v>
       </c>
       <c r="U31" t="n">
-        <v>114.7699989900978</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>97.5789915191115</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>179.8192178272022</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65.33133491134367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>101.1181252153547</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823103</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>4.005432486451042</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.2232578818468</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26032,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>43.26526345294992</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688196.6905741086</v>
+        <v>711009.1337253444</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688196.6905741086</v>
+        <v>688002.8680294908</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>688196.6905741086</v>
+        <v>688002.8680294909</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244619</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="G2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898953</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695135</v>
+        <v>6287.480531694995</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695133</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695064</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
@@ -26451,13 +26453,13 @@
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695019</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695019</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-578931.5090078075</v>
+        <v>-429350.212463085</v>
       </c>
       <c r="C6" t="n">
-        <v>535820.2745681126</v>
+        <v>364151.4332478093</v>
       </c>
       <c r="D6" t="n">
-        <v>535820.2745681121</v>
+        <v>536915.7930377044</v>
       </c>
       <c r="E6" t="n">
-        <v>131715.1527331067</v>
+        <v>138311.7266119022</v>
       </c>
       <c r="F6" t="n">
         <v>639200.5943576529</v>
       </c>
       <c r="G6" t="n">
-        <v>639200.5943576531</v>
+        <v>639200.5943576532</v>
       </c>
       <c r="H6" t="n">
         <v>639200.5943576531</v>
       </c>
       <c r="I6" t="n">
-        <v>639200.5943576531</v>
+        <v>639200.5943576534</v>
       </c>
       <c r="J6" t="n">
-        <v>471595.4165476706</v>
+        <v>469786.5775316051</v>
       </c>
       <c r="K6" t="n">
+        <v>639200.5943576528</v>
+      </c>
+      <c r="L6" t="n">
         <v>639200.5943576532</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>508316.1374534179</v>
+      </c>
+      <c r="N6" t="n">
         <v>639200.5943576534</v>
       </c>
-      <c r="M6" t="n">
-        <v>506593.3006287266</v>
-      </c>
-      <c r="N6" t="n">
-        <v>639200.5943576531</v>
-      </c>
       <c r="O6" t="n">
+        <v>639200.5943576532</v>
+      </c>
+      <c r="P6" t="n">
         <v>639200.5943576534</v>
-      </c>
-      <c r="P6" t="n">
-        <v>639200.5943576531</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.725434152237</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>428.2691096918296</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644024</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>211.0538497259021</v>
+        <v>245.2789289538165</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>68.4508417354198</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>156.5843200339669</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>16.08789019435403</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>313.7709168121</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.8053418959228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.89982105745952</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.84822358465482</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>252.5032905792086</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>259.8551184469023</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>63.96527613080968</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>650.5350891770659</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>514.6953762540921</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>282.8216163968492</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>429.5828357723605</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,16 +32557,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>322.8964653704906</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367367</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33262,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>235.5705495535876</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P33" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,7 +33976,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>161.7871425275302</v>
       </c>
       <c r="L42" t="n">
-        <v>246.9596973201446</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34462,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>305.6802133385886</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>340.8210349271839</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>25.57123921932359</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>122.649588151796</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>394.7322603618321</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>341.8791195350533</v>
+        <v>635.0794422579995</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>174.0696575289985</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>453.0121960057228</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>615.4729594198659</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>600.455114847638</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000385</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>190.1413181408532</v>
+        <v>309.4991650401233</v>
       </c>
       <c r="R9" t="n">
-        <v>24.5838886097709</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>519.1933770937326</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>372.0991318096477</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>140.6875824748309</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>295.6084283580303</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>188.9220579561604</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.3955650623777</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36844,13 +36846,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,13 +36910,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>92.97430510914316</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P33" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,13 +37858,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>23.94570355317127</v>
       </c>
       <c r="L42" t="n">
-        <v>108.4053175402704</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38110,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7058059242583</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3559654.085900056</v>
+        <v>3555497.89959209</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7834278.115728338</v>
+        <v>7834278.115728337</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>161.5971167878949</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504417</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>329.0236105989099</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>90.98684581339548</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>76.97020628751144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>190.4710157514067</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>139.9586771065636</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>107.5212269654717</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>60.86538463674658</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>295.8856180788258</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>219.0936198954564</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>102.3390435666022</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -1350,13 +1350,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>161.7443792582275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W13" t="n">
-        <v>40.96105405076516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>48.15331591778379</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>84.07981473403045</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>109.7234882887314</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>121.2558461704864</v>
+        <v>203.1332405899832</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>151.8555862333575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>3.458642397731778</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>48.85497112745768</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3322,10 +3322,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.4665281367401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.5792208656437</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>116.287325111933</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>216.8180354051597</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>144.108843301494</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1340.457591632811</v>
+        <v>833.4633159868991</v>
       </c>
       <c r="C2" t="n">
-        <v>971.4950746923994</v>
+        <v>833.4633159868991</v>
       </c>
       <c r="D2" t="n">
-        <v>613.2293760856489</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="E2" t="n">
-        <v>227.4411234874047</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>64.21171259054111</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
         <v>51.79985532281972</v>
@@ -4330,25 +4330,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870222</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520161</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719102</v>
+        <v>730.2783389764052</v>
       </c>
       <c r="M2" t="n">
-        <v>1569.741154691804</v>
+        <v>1371.301548596299</v>
       </c>
       <c r="N2" t="n">
-        <v>1875.216260927388</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2150.33248024402</v>
+        <v>2287.440977532828</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2487.745304821931</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016315</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2117.196763672745</v>
+        <v>1905.178892734175</v>
       </c>
       <c r="W2" t="n">
-        <v>2117.196763672745</v>
+        <v>1552.410237464061</v>
       </c>
       <c r="X2" t="n">
-        <v>2117.196763672745</v>
+        <v>1552.410237464061</v>
       </c>
       <c r="Y2" t="n">
-        <v>1727.057431696933</v>
+        <v>1220.063156051021</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.890208309364</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.437179028237</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669858</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615303</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884153</v>
+        <v>320.7307563884146</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>589.3234121784419</v>
+        <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.346621798336</v>
+        <v>1301.021405661426</v>
       </c>
       <c r="N3" t="n">
-        <v>1515.680492231667</v>
+        <v>1586.355276094759</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2215.08392393018</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
         <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028121</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1533.717344299919</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1325.865844094386</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
         <v>1118.105545329432</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1726.776407040599</v>
+        <v>1101.636343840552</v>
       </c>
       <c r="C4" t="n">
-        <v>1726.776407040599</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="D4" t="n">
-        <v>1576.659767628263</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="E4" t="n">
-        <v>1576.659767628263</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>1498.912084509565</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>1330.590312102689</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>1330.590312102689</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>1330.590312102689</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>1332.824984110053</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>1466.334073395855</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>1692.706176713999</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>1941.772943046538</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>2190.352074789138</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>2403.938841137293</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>2563.178535773336</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>2589.992766140986</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>2589.992766140986</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>2387.520519301288</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="T4" t="n">
-        <v>2163.109360076725</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="U4" t="n">
-        <v>2163.109360076725</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="V4" t="n">
-        <v>1908.424871870838</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="W4" t="n">
-        <v>1908.424871870838</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="X4" t="n">
-        <v>1908.424871870838</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="Y4" t="n">
-        <v>1908.424871870838</v>
+        <v>1193.542248702568</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1182.292134486497</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>1182.292134486497</v>
+        <v>898.1833666278133</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.292134486497</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4573,16 +4573,16 @@
         <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4597,22 +4597,22 @@
         <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2273.420620155269</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2273.420620155269</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="V5" t="n">
-        <v>1942.357732811699</v>
+        <v>2134.75269821716</v>
       </c>
       <c r="W5" t="n">
-        <v>1942.357732811699</v>
+        <v>1781.984042947046</v>
       </c>
       <c r="X5" t="n">
-        <v>1568.891974550619</v>
+        <v>1408.518284685966</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.891974550619</v>
+        <v>1267.145883568225</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682818</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845966</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1470.397510810264</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
-        <v>1860.807072136006</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>329.3433382158496</v>
+        <v>727.1359052451301</v>
       </c>
       <c r="C7" t="n">
-        <v>160.4071552879427</v>
+        <v>558.1997223172232</v>
       </c>
       <c r="D7" t="n">
-        <v>160.4071552879427</v>
+        <v>408.0830829048874</v>
       </c>
       <c r="E7" t="n">
-        <v>160.4071552879427</v>
+        <v>260.1699893224943</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>113.2800418245839</v>
       </c>
       <c r="G7" t="n">
         <v>51.79985532281972</v>
@@ -4725,52 +4725,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.927733452886</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1032.809956463284</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>778.1254682573971</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>778.1254682573971</v>
+        <v>1357.566500116917</v>
       </c>
       <c r="X7" t="n">
-        <v>550.1359173593797</v>
+        <v>1129.5769492189</v>
       </c>
       <c r="Y7" t="n">
-        <v>329.3433382158496</v>
+        <v>908.7843700753698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.530453193509</v>
+        <v>1439.787835839973</v>
       </c>
       <c r="C8" t="n">
-        <v>1229.530453193509</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1229.530453193509</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>843.7422005952644</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
         <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.236357502977</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.173470159406</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.404814889292</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.404814889292</v>
+        <v>2216.527007879907</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.404814889292</v>
+        <v>1826.387675904095</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421436</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.564585834469</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2255.657696694299</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.9164947351555</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="C10" t="n">
-        <v>201.9164947351555</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4989,25 +4989,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1441.489536631508</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1218.554962173489</v>
       </c>
       <c r="U10" t="n">
-        <v>836.3602904692523</v>
+        <v>929.4371851838877</v>
       </c>
       <c r="V10" t="n">
-        <v>836.3602904692523</v>
+        <v>674.7526969780008</v>
       </c>
       <c r="W10" t="n">
-        <v>546.9431204322916</v>
+        <v>385.3355269410403</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5649595653952</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5649595653952</v>
+        <v>157.3459760430229</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,28 +5056,28 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908939</v>
@@ -5430,58 +5430,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2148.422832439302</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1859.347605783499</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991043</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3110.333886317439</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>2941.397703389532</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>2941.397703389532</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>2793.484609807138</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>2646.594662309228</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024108</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650997</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>4538.858342859047</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>4319.256877881989</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>4030.181651226187</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>4030.181651226187</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3740.764481189226</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3512.774930291208</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3291.982351147678</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,19 +5740,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>666.6476097656493</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2453.684166529967</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1854.980427813048</v>
+        <v>2022.176527098168</v>
       </c>
       <c r="V25" t="n">
-        <v>1600.295939607161</v>
+        <v>1767.492038892281</v>
       </c>
       <c r="W25" t="n">
-        <v>1310.8787695702</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X25" t="n">
-        <v>1082.889218672183</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0966395286528</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.1294017454277</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6542,28 +6542,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2193.56896730804</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1904.493740652238</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7016,19 +7016,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
         <v>2129.438138565707</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3642.838752636078</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>700.7543264856228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>882.4027913158625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2257.062161108198</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2257.062161108198</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.054428916699</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037413</v>
+        <v>207.0311336426206</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942355</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>138.493431604859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>183.0243075811962</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>138.6886171670658</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.4670104377189</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.469478810361</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.18437503906578</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W13" t="n">
-        <v>245.5619442858258</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>169.2521344095045</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>96.94647126761414</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>38.89198472948098</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>164.9286282187578</v>
+        <v>83.0512337992609</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>65.54986409393072</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>213.9468079295565</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>97.5789915191115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.005432486451042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>142.414155035097</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711009.1337253444</v>
+        <v>711009.1337253441</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688002.8680294908</v>
+        <v>688002.8680294909</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293662</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244619</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244621</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.604713255</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6287.480531694995</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26447,7 +26447,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
@@ -26456,10 +26456,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26478,10 +26478,10 @@
         <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-429350.212463085</v>
+        <v>-429350.2124630874</v>
       </c>
       <c r="C6" t="n">
-        <v>364151.4332478093</v>
+        <v>364151.4332478122</v>
       </c>
       <c r="D6" t="n">
-        <v>536915.7930377044</v>
+        <v>536915.7930377047</v>
       </c>
       <c r="E6" t="n">
-        <v>138311.7266119022</v>
+        <v>137964.3473575455</v>
       </c>
       <c r="F6" t="n">
-        <v>639200.5943576529</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="G6" t="n">
-        <v>639200.5943576532</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="H6" t="n">
-        <v>639200.5943576531</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="I6" t="n">
-        <v>639200.5943576534</v>
+        <v>638853.2151032961</v>
       </c>
       <c r="J6" t="n">
-        <v>469786.5775316051</v>
+        <v>469439.1982772477</v>
       </c>
       <c r="K6" t="n">
-        <v>639200.5943576528</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="L6" t="n">
-        <v>639200.5943576532</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="M6" t="n">
-        <v>508316.1374534179</v>
+        <v>507968.758199061</v>
       </c>
       <c r="N6" t="n">
-        <v>639200.5943576534</v>
+        <v>638853.2151032962</v>
       </c>
       <c r="O6" t="n">
-        <v>639200.5943576532</v>
+        <v>638853.215103296</v>
       </c>
       <c r="P6" t="n">
-        <v>639200.5943576534</v>
+        <v>638853.2151032962</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498446</v>
@@ -26795,19 +26795,19 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918296</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>245.2789289538165</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>57.21432805714369</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>88.84513436854182</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>68.4508417354198</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>16.08789019435403</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>246.27926154949</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>37.89982105745952</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.84822358465482</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>146.1792718755511</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,7 +28031,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>92.14612576748891</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28070,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>63.96527613080968</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>514.6953762540921</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31864,16 +31864,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q18" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>209.2370040367367</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,31 +33262,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>397.4049812900382</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>161.7871425275302</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000254</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161554</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>647.4981915352465</v>
+        <v>447.0541449741277</v>
       </c>
       <c r="M2" t="n">
         <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>340.8210349271839</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>394.7322603618321</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422579995</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>312.7582746960655</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>615.4729594198659</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35269,10 +35269,10 @@
         <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>309.4991650401233</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>372.0991318096477</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>71.3955650623777</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36910,31 +36910,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>259.5635423156792</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>23.94570355317127</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3555497.89959209</v>
+        <v>3557258.429894877</v>
       </c>
     </row>
     <row r="7">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.28773869504415</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.0236105989099</v>
+        <v>321.095893321992</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.98684581339548</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.5250233818693</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>98.90816145668276</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>139.9586771065636</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>60.86538463674658</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>54.04974316665304</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>219.0936198954564</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.1931710999794</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>11.07459821439855</v>
       </c>
       <c r="S10" t="n">
-        <v>102.3390435666022</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2265992197056</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576183</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>186.5877792298974</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>203.1332405899832</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>59.66990246485181</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>85.08368458989422</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>216.8180354051597</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.4633159868991</v>
+        <v>974.430089661817</v>
       </c>
       <c r="C2" t="n">
-        <v>833.4633159868991</v>
+        <v>974.430089661817</v>
       </c>
       <c r="D2" t="n">
-        <v>475.1976173801486</v>
+        <v>974.430089661817</v>
       </c>
       <c r="E2" t="n">
-        <v>475.1976173801486</v>
+        <v>974.430089661817</v>
       </c>
       <c r="F2" t="n">
-        <v>64.2117125905411</v>
+        <v>563.4441848722093</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4333,10 +4333,10 @@
         <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764052</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
         <v>1371.301548596299</v>
@@ -4345,10 +4345,10 @@
         <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532828</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821931</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4363,19 +4363,19 @@
         <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.241780077746</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1905.178892734175</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1552.410237464061</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1552.410237464061</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1220.063156051021</v>
+        <v>974.430089661817</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884146</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4409,22 +4409,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>460.3590590626825</v>
+        <v>323.3685994072345</v>
       </c>
       <c r="L3" t="n">
-        <v>1037.081874165938</v>
+        <v>900.09141451049</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>1512.968691787245</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1798.302562220578</v>
       </c>
       <c r="O3" t="n">
-        <v>2215.08392393018</v>
+        <v>2037.107513972037</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4442,10 +4442,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.636343840552</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>932.7001609126449</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>782.5835215003092</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018416</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4512,28 +4512,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>1193.542248702568</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="Y4" t="n">
-        <v>1193.542248702568</v>
+        <v>1015.625955980482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.145883568225</v>
+        <v>1264.25585451054</v>
       </c>
       <c r="C5" t="n">
-        <v>898.1833666278133</v>
+        <v>1264.25585451054</v>
       </c>
       <c r="D5" t="n">
-        <v>539.9176680210627</v>
+        <v>1264.25585451054</v>
       </c>
       <c r="E5" t="n">
-        <v>539.9176680210627</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2490.085532346357</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2281.440172805184</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2027.860944747431</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.75269821716</v>
+        <v>2027.860944747431</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.984042947046</v>
+        <v>2027.860944747431</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.518284685966</v>
+        <v>1654.395186486351</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.145883568225</v>
+        <v>1264.25585451054</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1996.997356780105</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>727.1359052451301</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C7" t="n">
-        <v>558.1997223172232</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D7" t="n">
-        <v>408.0830829048874</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E7" t="n">
-        <v>260.1699893224943</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2800418245839</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4749,28 +4749,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.566500116917</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.5769492189</v>
+        <v>1490.266607742567</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.7843700753698</v>
+        <v>1269.474028599037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.787835839973</v>
+        <v>843.3897148123029</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>474.4271978718912</v>
       </c>
       <c r="E8" t="n">
         <v>474.4271978718912</v>
@@ -4795,19 +4795,19 @@
         <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477385</v>
@@ -4816,40 +4816,40 @@
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140987</v>
+        <v>2346.363300383431</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140987</v>
+        <v>1993.594645113316</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879907</v>
+        <v>1620.128886852237</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904095</v>
+        <v>1229.989554876425</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
@@ -4959,52 +4959,52 @@
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1635.797207311051</v>
       </c>
       <c r="S10" t="n">
-        <v>1441.489536631508</v>
+        <v>1439.34754131702</v>
       </c>
       <c r="T10" t="n">
-        <v>1218.554962173489</v>
+        <v>1439.34754131702</v>
       </c>
       <c r="U10" t="n">
-        <v>929.4371851838877</v>
+        <v>1150.229764327418</v>
       </c>
       <c r="V10" t="n">
-        <v>674.7526969780008</v>
+        <v>895.5452761215311</v>
       </c>
       <c r="W10" t="n">
-        <v>385.3355269410403</v>
+        <v>606.1281060845704</v>
       </c>
       <c r="X10" t="n">
-        <v>157.3459760430229</v>
+        <v>378.138555186553</v>
       </c>
       <c r="Y10" t="n">
         <v>157.3459760430229</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,49 +5035,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5609,7 +5609,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5992,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2022.176527098168</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>402.7245934908939</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6882,16 +6882,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
         <v>1491.508541327549</v>
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,10 +7028,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,46 +7393,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
         <v>402.7245934908938</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1978.054428916699</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.979202260897</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1434.29471405501</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426206</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942334</v>
+        <v>231.3227342656888</v>
       </c>
       <c r="N2" t="n">
         <v>338.9374781659683</v>
@@ -8057,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>352.4623694760275</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.6886171670658</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326898</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>200.7458546176089</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.1843750390658</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>83.0512337992609</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>61.35027805667495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671385.4404293661</v>
+        <v>671385.440429366</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671385.4404293662</v>
+        <v>671385.440429366</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244621</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244619</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.604713255</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132553</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753987</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
         <v>172764.3597898923</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457511</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169493</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26530,40 +26530,40 @@
         <v>536915.7930377047</v>
       </c>
       <c r="E6" t="n">
-        <v>137964.3473575455</v>
+        <v>138276.9886864666</v>
       </c>
       <c r="F6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322179</v>
       </c>
       <c r="G6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="H6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="I6" t="n">
-        <v>638853.2151032961</v>
+        <v>639165.8564322178</v>
       </c>
       <c r="J6" t="n">
-        <v>469439.1982772477</v>
+        <v>469751.8396061698</v>
       </c>
       <c r="K6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322173</v>
       </c>
       <c r="L6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="M6" t="n">
-        <v>507968.758199061</v>
+        <v>508281.399527982</v>
       </c>
       <c r="N6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322172</v>
       </c>
       <c r="O6" t="n">
-        <v>638853.215103296</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="P6" t="n">
-        <v>638853.2151032962</v>
+        <v>639165.8564322175</v>
       </c>
     </row>
   </sheetData>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>57.21432805714369</v>
+        <v>65.14204533406155</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.84513436854182</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>151.6737188942971</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24.02724731777028</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>246.27926154949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>105.4310422139829</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.6599122223841</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>146.1792718755511</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27912,10 +27912,10 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.55908737015551</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>90.02555040614587</v>
       </c>
       <c r="S10" t="n">
-        <v>92.14612576748891</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-7.250415110587462e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.21849573194802e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34701,16 +34701,16 @@
         <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741277</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>530.383912606702</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>619.067956845207</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>312.7582746960655</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
         <v>65.9375255168697</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35029,13 +35029,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>452.7425494307592</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36129,13 +36129,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
